--- a/Test EE surface render times.xlsx
+++ b/Test EE surface render times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\Documents\Extended Essay\GitHub\Extended-Essay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Vivado\EE\EE-GITHUB\Extended-Essay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Trial</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>256x256 with 256 iterations</t>
+  </si>
+  <si>
+    <t>i5 4300u</t>
+  </si>
+  <si>
+    <t>Rpi</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -68,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,82 +394,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>821</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>410</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1232</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>411</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f>(E12+E11+E10+E8+E9+E7+E6+E5+E4)/9</f>
+        <v>6527</v>
       </c>
     </row>
   </sheetData>
